--- a/더미데이터.xlsx
+++ b/더미데이터.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbju9\Desktop\projectpush\test7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A864166C-4394-4251-A7CE-8E906C6EF89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384F6F9-6CAD-4779-8859-FFBAF88C7C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{17CC2A92-F7A3-47B7-8F52-4241DDF2C6A1}"/>
+    <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{17CC2A92-F7A3-47B7-8F52-4241DDF2C6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="회원정보" sheetId="1" r:id="rId1"/>
     <sheet name="신고내용" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="채팅" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29706,7 +29707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554FA609-FA59-4320-BBAE-5B8CFC7FBCE3}">
   <dimension ref="F8:F596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -32647,4 +32648,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0830C690-DD98-4D43-902D-2C7E72DC80ED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/더미데이터.xlsx
+++ b/더미데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbju9\Desktop\projectpush\test7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6384F6F9-6CAD-4779-8859-FFBAF88C7C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA67EC-33A4-45E4-8654-A1AB8F738AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{17CC2A92-F7A3-47B7-8F52-4241DDF2C6A1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6980" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7302" uniqueCount="1180">
   <si>
     <t>asdf1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3464,6 +3464,202 @@
   </si>
   <si>
     <t>0,171,to_date('2020-01-06 1200', 'YYYY-MM-DDHH24MI'));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 대화 더미데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into tb_chattingcontent2(chatting_no, user_no, msg_content, msg_date) values (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅇㅎㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(__)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅋㅇㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱㄱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssㄴㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제해 주셔서 감사합니다. 서비스 제공 잘할게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 축하드립니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넹넹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㅂㅂㅂㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 하셈 좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫은데요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해보셈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥 드심?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㄴ 아직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥 드실래요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트에 당첨되셨습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉 정말요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구라에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴수 있죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕히계세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23155,8 +23351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FF4D68-9BDC-4E30-8C94-9419D71AAEEF}">
   <dimension ref="D4:N192"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76:L192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -32652,15 +32848,1467 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0830C690-DD98-4D43-902D-2C7E72DC80ED}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>371</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>374</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>375</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>377</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>378</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>379</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>380</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>16</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>381</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>382</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>383</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>387</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>388</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>389</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>391</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>392</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>393</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>394</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>395</v>
+      </c>
+      <c r="K36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>396</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>397</v>
+      </c>
+      <c r="K38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>398</v>
+      </c>
+      <c r="K39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>399</v>
+      </c>
+      <c r="K40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>400</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>401</v>
+      </c>
+      <c r="K42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>402</v>
+      </c>
+      <c r="K43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>403</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/더미데이터.xlsx
+++ b/더미데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbju9\Desktop\projectpush\test7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA67EC-33A4-45E4-8654-A1AB8F738AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8527442E-5A1D-4241-91F5-89B76C76530D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="345" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{17CC2A92-F7A3-47B7-8F52-4241DDF2C6A1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7302" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7302" uniqueCount="1506">
   <si>
     <t>asdf1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3661,6 +3661,986 @@
   <si>
     <t>안녕히계세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick3</t>
+  </si>
+  <si>
+    <t>nick4</t>
+  </si>
+  <si>
+    <t>nick5</t>
+  </si>
+  <si>
+    <t>nick6</t>
+  </si>
+  <si>
+    <t>nick7</t>
+  </si>
+  <si>
+    <t>nick8</t>
+  </si>
+  <si>
+    <t>nick9</t>
+  </si>
+  <si>
+    <t>nick10</t>
+  </si>
+  <si>
+    <t>nick11</t>
+  </si>
+  <si>
+    <t>nick12</t>
+  </si>
+  <si>
+    <t>nick13</t>
+  </si>
+  <si>
+    <t>nick14</t>
+  </si>
+  <si>
+    <t>nick15</t>
+  </si>
+  <si>
+    <t>nick16</t>
+  </si>
+  <si>
+    <t>nick17</t>
+  </si>
+  <si>
+    <t>nick18</t>
+  </si>
+  <si>
+    <t>nick19</t>
+  </si>
+  <si>
+    <t>nick20</t>
+  </si>
+  <si>
+    <t>nick21</t>
+  </si>
+  <si>
+    <t>nick22</t>
+  </si>
+  <si>
+    <t>nick23</t>
+  </si>
+  <si>
+    <t>nick24</t>
+  </si>
+  <si>
+    <t>nick25</t>
+  </si>
+  <si>
+    <t>nick26</t>
+  </si>
+  <si>
+    <t>nick27</t>
+  </si>
+  <si>
+    <t>nick28</t>
+  </si>
+  <si>
+    <t>nick29</t>
+  </si>
+  <si>
+    <t>nick30</t>
+  </si>
+  <si>
+    <t>nick31</t>
+  </si>
+  <si>
+    <t>nick32</t>
+  </si>
+  <si>
+    <t>nick33</t>
+  </si>
+  <si>
+    <t>nick34</t>
+  </si>
+  <si>
+    <t>nick35</t>
+  </si>
+  <si>
+    <t>nick36</t>
+  </si>
+  <si>
+    <t>nick37</t>
+  </si>
+  <si>
+    <t>nick38</t>
+  </si>
+  <si>
+    <t>nick39</t>
+  </si>
+  <si>
+    <t>nick40</t>
+  </si>
+  <si>
+    <t>nick41</t>
+  </si>
+  <si>
+    <t>nick42</t>
+  </si>
+  <si>
+    <t>nick43</t>
+  </si>
+  <si>
+    <t>nick44</t>
+  </si>
+  <si>
+    <t>nick45</t>
+  </si>
+  <si>
+    <t>nick46</t>
+  </si>
+  <si>
+    <t>nick47</t>
+  </si>
+  <si>
+    <t>nick48</t>
+  </si>
+  <si>
+    <t>nick49</t>
+  </si>
+  <si>
+    <t>nick50</t>
+  </si>
+  <si>
+    <t>nick51</t>
+  </si>
+  <si>
+    <t>nick52</t>
+  </si>
+  <si>
+    <t>nick53</t>
+  </si>
+  <si>
+    <t>nick54</t>
+  </si>
+  <si>
+    <t>nick55</t>
+  </si>
+  <si>
+    <t>nick56</t>
+  </si>
+  <si>
+    <t>nick57</t>
+  </si>
+  <si>
+    <t>nick58</t>
+  </si>
+  <si>
+    <t>nick59</t>
+  </si>
+  <si>
+    <t>nick60</t>
+  </si>
+  <si>
+    <t>nick61</t>
+  </si>
+  <si>
+    <t>nick62</t>
+  </si>
+  <si>
+    <t>nick63</t>
+  </si>
+  <si>
+    <t>nick64</t>
+  </si>
+  <si>
+    <t>nick65</t>
+  </si>
+  <si>
+    <t>nick66</t>
+  </si>
+  <si>
+    <t>nick67</t>
+  </si>
+  <si>
+    <t>nick68</t>
+  </si>
+  <si>
+    <t>nick69</t>
+  </si>
+  <si>
+    <t>nick70</t>
+  </si>
+  <si>
+    <t>nick71</t>
+  </si>
+  <si>
+    <t>nick72</t>
+  </si>
+  <si>
+    <t>nick73</t>
+  </si>
+  <si>
+    <t>nick74</t>
+  </si>
+  <si>
+    <t>nick75</t>
+  </si>
+  <si>
+    <t>nick76</t>
+  </si>
+  <si>
+    <t>nick77</t>
+  </si>
+  <si>
+    <t>nick78</t>
+  </si>
+  <si>
+    <t>nick79</t>
+  </si>
+  <si>
+    <t>nick80</t>
+  </si>
+  <si>
+    <t>nick81</t>
+  </si>
+  <si>
+    <t>nick82</t>
+  </si>
+  <si>
+    <t>nick83</t>
+  </si>
+  <si>
+    <t>nick84</t>
+  </si>
+  <si>
+    <t>nick85</t>
+  </si>
+  <si>
+    <t>nick86</t>
+  </si>
+  <si>
+    <t>nick87</t>
+  </si>
+  <si>
+    <t>nick88</t>
+  </si>
+  <si>
+    <t>nick89</t>
+  </si>
+  <si>
+    <t>nick90</t>
+  </si>
+  <si>
+    <t>nick91</t>
+  </si>
+  <si>
+    <t>nick92</t>
+  </si>
+  <si>
+    <t>nick93</t>
+  </si>
+  <si>
+    <t>nick94</t>
+  </si>
+  <si>
+    <t>nick95</t>
+  </si>
+  <si>
+    <t>nick96</t>
+  </si>
+  <si>
+    <t>nick97</t>
+  </si>
+  <si>
+    <t>nick98</t>
+  </si>
+  <si>
+    <t>nick99</t>
+  </si>
+  <si>
+    <t>nick100</t>
+  </si>
+  <si>
+    <t>nick101</t>
+  </si>
+  <si>
+    <t>nick102</t>
+  </si>
+  <si>
+    <t>nick103</t>
+  </si>
+  <si>
+    <t>nick104</t>
+  </si>
+  <si>
+    <t>nick105</t>
+  </si>
+  <si>
+    <t>nick106</t>
+  </si>
+  <si>
+    <t>nick107</t>
+  </si>
+  <si>
+    <t>nick108</t>
+  </si>
+  <si>
+    <t>nick109</t>
+  </si>
+  <si>
+    <t>nick110</t>
+  </si>
+  <si>
+    <t>nick111</t>
+  </si>
+  <si>
+    <t>nick112</t>
+  </si>
+  <si>
+    <t>nick113</t>
+  </si>
+  <si>
+    <t>nick114</t>
+  </si>
+  <si>
+    <t>nick115</t>
+  </si>
+  <si>
+    <t>nick116</t>
+  </si>
+  <si>
+    <t>nick117</t>
+  </si>
+  <si>
+    <t>nick118</t>
+  </si>
+  <si>
+    <t>nick119</t>
+  </si>
+  <si>
+    <t>nick120</t>
+  </si>
+  <si>
+    <t>nick121</t>
+  </si>
+  <si>
+    <t>nick122</t>
+  </si>
+  <si>
+    <t>nick123</t>
+  </si>
+  <si>
+    <t>nick124</t>
+  </si>
+  <si>
+    <t>nick125</t>
+  </si>
+  <si>
+    <t>nick126</t>
+  </si>
+  <si>
+    <t>nick127</t>
+  </si>
+  <si>
+    <t>nick128</t>
+  </si>
+  <si>
+    <t>nick129</t>
+  </si>
+  <si>
+    <t>nick130</t>
+  </si>
+  <si>
+    <t>nick131</t>
+  </si>
+  <si>
+    <t>nick132</t>
+  </si>
+  <si>
+    <t>nick133</t>
+  </si>
+  <si>
+    <t>nick134</t>
+  </si>
+  <si>
+    <t>nick135</t>
+  </si>
+  <si>
+    <t>nick136</t>
+  </si>
+  <si>
+    <t>nick137</t>
+  </si>
+  <si>
+    <t>nick138</t>
+  </si>
+  <si>
+    <t>nick139</t>
+  </si>
+  <si>
+    <t>nick140</t>
+  </si>
+  <si>
+    <t>nick141</t>
+  </si>
+  <si>
+    <t>nick142</t>
+  </si>
+  <si>
+    <t>nick143</t>
+  </si>
+  <si>
+    <t>nick144</t>
+  </si>
+  <si>
+    <t>nick145</t>
+  </si>
+  <si>
+    <t>nick146</t>
+  </si>
+  <si>
+    <t>nick147</t>
+  </si>
+  <si>
+    <t>nick148</t>
+  </si>
+  <si>
+    <t>nick149</t>
+  </si>
+  <si>
+    <t>nick150</t>
+  </si>
+  <si>
+    <t>nick151</t>
+  </si>
+  <si>
+    <t>nick152</t>
+  </si>
+  <si>
+    <t>nick153</t>
+  </si>
+  <si>
+    <t>nick154</t>
+  </si>
+  <si>
+    <t>nick155</t>
+  </si>
+  <si>
+    <t>nick156</t>
+  </si>
+  <si>
+    <t>nick157</t>
+  </si>
+  <si>
+    <t>nick158</t>
+  </si>
+  <si>
+    <t>nick159</t>
+  </si>
+  <si>
+    <t>nick160</t>
+  </si>
+  <si>
+    <t>nick161</t>
+  </si>
+  <si>
+    <t>nick162</t>
+  </si>
+  <si>
+    <t>nick163</t>
+  </si>
+  <si>
+    <t>nick164</t>
+  </si>
+  <si>
+    <t>nick165</t>
+  </si>
+  <si>
+    <t>nick166</t>
+  </si>
+  <si>
+    <t>nick167</t>
+  </si>
+  <si>
+    <t>nick168</t>
+  </si>
+  <si>
+    <t>nick169</t>
+  </si>
+  <si>
+    <t>nick170</t>
+  </si>
+  <si>
+    <t>nick171</t>
+  </si>
+  <si>
+    <t>nick172</t>
+  </si>
+  <si>
+    <t>nick173</t>
+  </si>
+  <si>
+    <t>nick174</t>
+  </si>
+  <si>
+    <t>nick175</t>
+  </si>
+  <si>
+    <t>nick176</t>
+  </si>
+  <si>
+    <t>nick177</t>
+  </si>
+  <si>
+    <t>nick178</t>
+  </si>
+  <si>
+    <t>nick179</t>
+  </si>
+  <si>
+    <t>nick180</t>
+  </si>
+  <si>
+    <t>nick181</t>
+  </si>
+  <si>
+    <t>nick182</t>
+  </si>
+  <si>
+    <t>nick183</t>
+  </si>
+  <si>
+    <t>nick184</t>
+  </si>
+  <si>
+    <t>nick185</t>
+  </si>
+  <si>
+    <t>nick186</t>
+  </si>
+  <si>
+    <t>nick187</t>
+  </si>
+  <si>
+    <t>nick188</t>
+  </si>
+  <si>
+    <t>nick189</t>
+  </si>
+  <si>
+    <t>nick190</t>
+  </si>
+  <si>
+    <t>nick191</t>
+  </si>
+  <si>
+    <t>nick192</t>
+  </si>
+  <si>
+    <t>nick193</t>
+  </si>
+  <si>
+    <t>nick194</t>
+  </si>
+  <si>
+    <t>nick195</t>
+  </si>
+  <si>
+    <t>nick196</t>
+  </si>
+  <si>
+    <t>nick197</t>
+  </si>
+  <si>
+    <t>nick198</t>
+  </si>
+  <si>
+    <t>nick199</t>
+  </si>
+  <si>
+    <t>nick200</t>
+  </si>
+  <si>
+    <t>nick201</t>
+  </si>
+  <si>
+    <t>nick202</t>
+  </si>
+  <si>
+    <t>nick203</t>
+  </si>
+  <si>
+    <t>nick204</t>
+  </si>
+  <si>
+    <t>nick205</t>
+  </si>
+  <si>
+    <t>nick206</t>
+  </si>
+  <si>
+    <t>nick207</t>
+  </si>
+  <si>
+    <t>nick208</t>
+  </si>
+  <si>
+    <t>nick209</t>
+  </si>
+  <si>
+    <t>nick210</t>
+  </si>
+  <si>
+    <t>nick211</t>
+  </si>
+  <si>
+    <t>nick212</t>
+  </si>
+  <si>
+    <t>nick213</t>
+  </si>
+  <si>
+    <t>nick214</t>
+  </si>
+  <si>
+    <t>nick215</t>
+  </si>
+  <si>
+    <t>nick216</t>
+  </si>
+  <si>
+    <t>nick217</t>
+  </si>
+  <si>
+    <t>nick218</t>
+  </si>
+  <si>
+    <t>nick219</t>
+  </si>
+  <si>
+    <t>nick220</t>
+  </si>
+  <si>
+    <t>nick221</t>
+  </si>
+  <si>
+    <t>nick222</t>
+  </si>
+  <si>
+    <t>nick223</t>
+  </si>
+  <si>
+    <t>nick224</t>
+  </si>
+  <si>
+    <t>nick225</t>
+  </si>
+  <si>
+    <t>nick226</t>
+  </si>
+  <si>
+    <t>nick227</t>
+  </si>
+  <si>
+    <t>nick228</t>
+  </si>
+  <si>
+    <t>nick229</t>
+  </si>
+  <si>
+    <t>nick230</t>
+  </si>
+  <si>
+    <t>nick231</t>
+  </si>
+  <si>
+    <t>nick232</t>
+  </si>
+  <si>
+    <t>nick233</t>
+  </si>
+  <si>
+    <t>nick234</t>
+  </si>
+  <si>
+    <t>nick235</t>
+  </si>
+  <si>
+    <t>nick236</t>
+  </si>
+  <si>
+    <t>nick237</t>
+  </si>
+  <si>
+    <t>nick238</t>
+  </si>
+  <si>
+    <t>nick239</t>
+  </si>
+  <si>
+    <t>nick240</t>
+  </si>
+  <si>
+    <t>nick241</t>
+  </si>
+  <si>
+    <t>nick242</t>
+  </si>
+  <si>
+    <t>nick243</t>
+  </si>
+  <si>
+    <t>nick244</t>
+  </si>
+  <si>
+    <t>nick245</t>
+  </si>
+  <si>
+    <t>nick246</t>
+  </si>
+  <si>
+    <t>nick247</t>
+  </si>
+  <si>
+    <t>nick248</t>
+  </si>
+  <si>
+    <t>nick249</t>
+  </si>
+  <si>
+    <t>nick250</t>
+  </si>
+  <si>
+    <t>nick251</t>
+  </si>
+  <si>
+    <t>nick252</t>
+  </si>
+  <si>
+    <t>nick253</t>
+  </si>
+  <si>
+    <t>nick254</t>
+  </si>
+  <si>
+    <t>nick255</t>
+  </si>
+  <si>
+    <t>nick256</t>
+  </si>
+  <si>
+    <t>nick257</t>
+  </si>
+  <si>
+    <t>nick258</t>
+  </si>
+  <si>
+    <t>nick259</t>
+  </si>
+  <si>
+    <t>nick260</t>
+  </si>
+  <si>
+    <t>nick261</t>
+  </si>
+  <si>
+    <t>nick262</t>
+  </si>
+  <si>
+    <t>nick263</t>
+  </si>
+  <si>
+    <t>nick264</t>
+  </si>
+  <si>
+    <t>nick265</t>
+  </si>
+  <si>
+    <t>nick266</t>
+  </si>
+  <si>
+    <t>nick267</t>
+  </si>
+  <si>
+    <t>nick268</t>
+  </si>
+  <si>
+    <t>nick269</t>
+  </si>
+  <si>
+    <t>nick270</t>
+  </si>
+  <si>
+    <t>nick271</t>
+  </si>
+  <si>
+    <t>nick272</t>
+  </si>
+  <si>
+    <t>nick273</t>
+  </si>
+  <si>
+    <t>nick274</t>
+  </si>
+  <si>
+    <t>nick275</t>
+  </si>
+  <si>
+    <t>nick276</t>
+  </si>
+  <si>
+    <t>nick277</t>
+  </si>
+  <si>
+    <t>nick278</t>
+  </si>
+  <si>
+    <t>nick279</t>
+  </si>
+  <si>
+    <t>nick280</t>
+  </si>
+  <si>
+    <t>nick281</t>
+  </si>
+  <si>
+    <t>nick282</t>
+  </si>
+  <si>
+    <t>nick283</t>
+  </si>
+  <si>
+    <t>nick284</t>
+  </si>
+  <si>
+    <t>nick285</t>
+  </si>
+  <si>
+    <t>nick286</t>
+  </si>
+  <si>
+    <t>nick287</t>
+  </si>
+  <si>
+    <t>nick288</t>
+  </si>
+  <si>
+    <t>nick289</t>
+  </si>
+  <si>
+    <t>nick290</t>
+  </si>
+  <si>
+    <t>nick291</t>
+  </si>
+  <si>
+    <t>nick292</t>
+  </si>
+  <si>
+    <t>nick293</t>
+  </si>
+  <si>
+    <t>nick294</t>
+  </si>
+  <si>
+    <t>nick295</t>
+  </si>
+  <si>
+    <t>nick296</t>
+  </si>
+  <si>
+    <t>nick297</t>
+  </si>
+  <si>
+    <t>nick298</t>
+  </si>
+  <si>
+    <t>nick299</t>
+  </si>
+  <si>
+    <t>nick300</t>
+  </si>
+  <si>
+    <t>nick301</t>
+  </si>
+  <si>
+    <t>nick302</t>
+  </si>
+  <si>
+    <t>nick303</t>
+  </si>
+  <si>
+    <t>nick304</t>
+  </si>
+  <si>
+    <t>nick305</t>
+  </si>
+  <si>
+    <t>nick306</t>
+  </si>
+  <si>
+    <t>nick307</t>
+  </si>
+  <si>
+    <t>nick308</t>
+  </si>
+  <si>
+    <t>nick309</t>
+  </si>
+  <si>
+    <t>nick310</t>
+  </si>
+  <si>
+    <t>nick311</t>
+  </si>
+  <si>
+    <t>nick312</t>
+  </si>
+  <si>
+    <t>nick313</t>
+  </si>
+  <si>
+    <t>nick314</t>
+  </si>
+  <si>
+    <t>nick315</t>
+  </si>
+  <si>
+    <t>nick316</t>
+  </si>
+  <si>
+    <t>nick317</t>
+  </si>
+  <si>
+    <t>nick318</t>
+  </si>
+  <si>
+    <t>nick319</t>
+  </si>
+  <si>
+    <t>nick320</t>
+  </si>
+  <si>
+    <t>nick321</t>
+  </si>
+  <si>
+    <t>nick322</t>
+  </si>
+  <si>
+    <t>nick323</t>
+  </si>
+  <si>
+    <t>nick324</t>
+  </si>
+  <si>
+    <t>nick325</t>
+  </si>
+  <si>
+    <t>nick326</t>
   </si>
 </sst>
 </file>
@@ -4057,7 +5037,7 @@
   <dimension ref="D3:V330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4121,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>1</v>
@@ -4180,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>1181</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>1</v>
@@ -4239,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>1182</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>1</v>
@@ -4298,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>1183</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>1</v>
@@ -4357,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>1184</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>1</v>
@@ -4416,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>1185</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>1</v>
@@ -4475,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>1186</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>1</v>
@@ -4534,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>1187</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>1</v>
@@ -4593,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>1188</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>1</v>
@@ -4652,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>1189</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>1</v>
@@ -4711,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>1190</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>1</v>
@@ -4770,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>1191</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>1</v>
@@ -4829,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>1192</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>1</v>
@@ -4888,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>1193</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>1</v>
@@ -4947,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>1194</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>1</v>
@@ -5006,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>1195</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>1</v>
@@ -5065,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>1196</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>1</v>
@@ -5124,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>1197</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>1</v>
@@ -5183,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>1198</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>1</v>
@@ -5242,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>1199</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>1</v>
@@ -5301,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>1200</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>1</v>
@@ -5360,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>1201</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>1</v>
@@ -5419,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>1202</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>1</v>
@@ -5478,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>1203</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>1</v>
@@ -5537,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>1204</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>1</v>
@@ -5596,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>1205</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>1</v>
@@ -5655,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>1206</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>1</v>
@@ -5714,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>1207</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>1</v>
@@ -5773,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>1208</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>1</v>
@@ -5832,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>1209</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>1</v>
@@ -5891,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>1210</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>1</v>
@@ -5950,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>1211</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>1</v>
@@ -6009,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>1212</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>1</v>
@@ -6068,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
+        <v>1213</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>1</v>
@@ -6127,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>1214</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>1</v>
@@ -6186,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>1215</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>1</v>
@@ -6245,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>42</v>
+        <v>1216</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>1</v>
@@ -6304,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>1217</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>1</v>
@@ -6363,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
+        <v>1218</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>1</v>
@@ -6422,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>45</v>
+        <v>1219</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>1</v>
@@ -6481,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>1220</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>1</v>
@@ -6540,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>1221</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>1</v>
@@ -6599,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>1222</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>1</v>
@@ -6658,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>1223</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>1</v>
@@ -6717,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>1224</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>1</v>
@@ -6776,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>1225</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>1</v>
@@ -6835,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>1226</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>1</v>
@@ -6894,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>1227</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>1</v>
@@ -6953,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>1228</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>1</v>
@@ -7012,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>55</v>
+        <v>1229</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>1</v>
@@ -7071,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>56</v>
+        <v>1230</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>1</v>
@@ -7130,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>57</v>
+        <v>1231</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>1</v>
@@ -7189,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>1232</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>1</v>
@@ -7248,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>1233</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>1</v>
@@ -7307,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>60</v>
+        <v>1234</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>1</v>
@@ -7366,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>61</v>
+        <v>1235</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>1</v>
@@ -7425,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>124</v>
+        <v>1236</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>1</v>
@@ -7484,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>126</v>
+        <v>1237</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>1</v>
@@ -7543,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>127</v>
+        <v>1238</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>1</v>
@@ -7602,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>128</v>
+        <v>1239</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>1</v>
@@ -7661,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>129</v>
+        <v>1240</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>1</v>
@@ -7720,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>130</v>
+        <v>1241</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>1</v>
@@ -7779,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>131</v>
+        <v>1242</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>1</v>
@@ -7838,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>1243</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>1</v>
@@ -7897,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>133</v>
+        <v>1244</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>1</v>
@@ -7956,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>134</v>
+        <v>1245</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>1</v>
@@ -8015,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>135</v>
+        <v>1246</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>1</v>
@@ -8074,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>136</v>
+        <v>1247</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>1</v>
@@ -8133,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>137</v>
+        <v>1248</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>1</v>
@@ -8192,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>138</v>
+        <v>1249</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>1</v>
@@ -8251,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>139</v>
+        <v>1250</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>1</v>
@@ -8310,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>140</v>
+        <v>1251</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>1</v>
@@ -8369,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>141</v>
+        <v>1252</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>1</v>
@@ -8428,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>142</v>
+        <v>1253</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>1</v>
@@ -8487,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>143</v>
+        <v>1254</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>1</v>
@@ -8546,7 +9526,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>1</v>
@@ -8605,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>145</v>
+        <v>1256</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>1</v>
@@ -8664,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>146</v>
+        <v>1257</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>1</v>
@@ -8723,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>147</v>
+        <v>1258</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>1</v>
@@ -8782,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>148</v>
+        <v>1259</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>1</v>
@@ -8841,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>149</v>
+        <v>1260</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>1</v>
@@ -8900,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>150</v>
+        <v>1261</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>1</v>
@@ -8959,7 +9939,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>151</v>
+        <v>1262</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>1</v>
@@ -9018,7 +9998,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>152</v>
+        <v>1263</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>1</v>
@@ -9077,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>153</v>
+        <v>1264</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>1</v>
@@ -9136,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>154</v>
+        <v>1265</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>1</v>
@@ -9195,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>155</v>
+        <v>1266</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>1</v>
@@ -9254,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>156</v>
+        <v>1267</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>1</v>
@@ -9313,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>157</v>
+        <v>1268</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>1</v>
@@ -9372,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>158</v>
+        <v>1269</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>1</v>
@@ -9431,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>159</v>
+        <v>1270</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>1</v>
@@ -9490,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>160</v>
+        <v>1271</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>1</v>
@@ -9549,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>161</v>
+        <v>1272</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>1</v>
@@ -9608,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>162</v>
+        <v>1273</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>1</v>
@@ -9667,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>163</v>
+        <v>1274</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>1</v>
@@ -9726,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>164</v>
+        <v>1275</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>1</v>
@@ -9785,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>165</v>
+        <v>1276</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>1</v>
@@ -9844,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>166</v>
+        <v>1277</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>1</v>
@@ -9903,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>167</v>
+        <v>1278</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>1</v>
@@ -9962,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>168</v>
+        <v>1279</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>1</v>
@@ -10021,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>169</v>
+        <v>1280</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>1</v>
@@ -10080,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>170</v>
+        <v>1281</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>1</v>
@@ -10139,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>171</v>
+        <v>1282</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>1</v>
@@ -10198,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>172</v>
+        <v>1283</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>1</v>
@@ -10257,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>173</v>
+        <v>1284</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>1</v>
@@ -10316,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>174</v>
+        <v>1285</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>1</v>
@@ -10375,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>175</v>
+        <v>1286</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>1</v>
@@ -10434,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>176</v>
+        <v>1287</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>1</v>
@@ -10493,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="K113" t="s">
-        <v>177</v>
+        <v>1288</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>1</v>
@@ -10552,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>178</v>
+        <v>1289</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>1</v>
@@ -10611,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>179</v>
+        <v>1290</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>1</v>
@@ -10670,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>180</v>
+        <v>1291</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>1</v>
@@ -10729,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="K117" t="s">
-        <v>181</v>
+        <v>1292</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>1</v>
@@ -10788,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>182</v>
+        <v>1293</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>1</v>
@@ -10847,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>183</v>
+        <v>1294</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>1</v>
@@ -10906,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>184</v>
+        <v>1295</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>1</v>
@@ -10965,7 +11945,7 @@
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>185</v>
+        <v>1296</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>1</v>
@@ -11024,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="s">
-        <v>186</v>
+        <v>1297</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>1</v>
@@ -11083,7 +12063,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>187</v>
+        <v>1298</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>1</v>
@@ -11142,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>188</v>
+        <v>1299</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>1</v>
@@ -11201,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>189</v>
+        <v>1300</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>1</v>
@@ -11260,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>190</v>
+        <v>1301</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>1</v>
@@ -11319,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>191</v>
+        <v>1302</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>1</v>
@@ -11378,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>192</v>
+        <v>1303</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>1</v>
@@ -11437,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>193</v>
+        <v>1304</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>1</v>
@@ -11496,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>194</v>
+        <v>1305</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>1</v>
@@ -11555,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>195</v>
+        <v>1306</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>1</v>
@@ -11614,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>196</v>
+        <v>1307</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>1</v>
@@ -11673,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>197</v>
+        <v>1308</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>1</v>
@@ -11732,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>198</v>
+        <v>1309</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>1</v>
@@ -11791,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>199</v>
+        <v>1310</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>1</v>
@@ -11850,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>200</v>
+        <v>1311</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>1</v>
@@ -11909,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>201</v>
+        <v>1312</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>1</v>
@@ -11968,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>202</v>
+        <v>1313</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>1</v>
@@ -12027,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>203</v>
+        <v>1314</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>1</v>
@@ -12086,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>204</v>
+        <v>1315</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>1</v>
@@ -12145,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>205</v>
+        <v>1316</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>1</v>
@@ -12204,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>206</v>
+        <v>1317</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>1</v>
@@ -12263,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>207</v>
+        <v>1318</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>1</v>
@@ -12322,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>208</v>
+        <v>1319</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>1</v>
@@ -12381,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>209</v>
+        <v>1320</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>1</v>
@@ -12440,7 +13420,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>210</v>
+        <v>1321</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>1</v>
@@ -12499,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>211</v>
+        <v>1322</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>1</v>
@@ -12558,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>212</v>
+        <v>1323</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>1</v>
@@ -12617,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>213</v>
+        <v>1324</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>1</v>
@@ -12676,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>214</v>
+        <v>1325</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>1</v>
@@ -12735,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>215</v>
+        <v>1326</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>1</v>
@@ -12794,7 +13774,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>216</v>
+        <v>1327</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>1</v>
@@ -12853,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>217</v>
+        <v>1328</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>1</v>
@@ -12912,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>218</v>
+        <v>1329</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>1</v>
@@ -12971,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>219</v>
+        <v>1330</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>1</v>
@@ -13030,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>220</v>
+        <v>1331</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>1</v>
@@ -13089,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>221</v>
+        <v>1332</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>1</v>
@@ -13148,7 +14128,7 @@
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>222</v>
+        <v>1333</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>1</v>
@@ -13207,7 +14187,7 @@
         <v>1</v>
       </c>
       <c r="K159" t="s">
-        <v>223</v>
+        <v>1334</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>1</v>
@@ -13266,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>224</v>
+        <v>1335</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>1</v>
@@ -13325,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>225</v>
+        <v>1336</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>1</v>
@@ -13384,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="K162" t="s">
-        <v>226</v>
+        <v>1337</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>1</v>
@@ -13443,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="K163" t="s">
-        <v>227</v>
+        <v>1338</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>1</v>
@@ -13502,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>228</v>
+        <v>1339</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>1</v>
@@ -13561,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="K165" t="s">
-        <v>229</v>
+        <v>1340</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>1</v>
@@ -13620,7 +14600,7 @@
         <v>1</v>
       </c>
       <c r="K166" t="s">
-        <v>230</v>
+        <v>1341</v>
       </c>
       <c r="L166" s="1" t="s">
         <v>1</v>
@@ -13679,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>231</v>
+        <v>1342</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>1</v>
@@ -13738,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>232</v>
+        <v>1343</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>1</v>
@@ -13797,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>233</v>
+        <v>1344</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>1</v>
@@ -13856,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>234</v>
+        <v>1345</v>
       </c>
       <c r="L170" s="1" t="s">
         <v>1</v>
@@ -13915,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>235</v>
+        <v>1346</v>
       </c>
       <c r="L171" s="1" t="s">
         <v>1</v>
@@ -13974,7 +14954,7 @@
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>236</v>
+        <v>1347</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>1</v>
@@ -14033,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>237</v>
+        <v>1348</v>
       </c>
       <c r="L173" s="1" t="s">
         <v>1</v>
@@ -14092,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>238</v>
+        <v>1349</v>
       </c>
       <c r="L174" s="1" t="s">
         <v>1</v>
@@ -14151,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>239</v>
+        <v>1350</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>1</v>
@@ -14210,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>240</v>
+        <v>1351</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>1</v>
@@ -14269,7 +15249,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="s">
-        <v>241</v>
+        <v>1352</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>1</v>
@@ -14328,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>242</v>
+        <v>1353</v>
       </c>
       <c r="L178" s="1" t="s">
         <v>1</v>
@@ -14387,7 +15367,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>243</v>
+        <v>1354</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>1</v>
@@ -14446,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>814</v>
+        <v>1355</v>
       </c>
       <c r="L180" s="1" t="s">
         <v>1</v>
@@ -14505,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>815</v>
+        <v>1356</v>
       </c>
       <c r="L181" s="1" t="s">
         <v>1</v>
@@ -14564,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>816</v>
+        <v>1357</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>1</v>
@@ -14623,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>817</v>
+        <v>1358</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>1</v>
@@ -14682,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="K184" t="s">
-        <v>818</v>
+        <v>1359</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>1</v>
@@ -14741,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>819</v>
+        <v>1360</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>1</v>
@@ -14800,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="K186" t="s">
-        <v>820</v>
+        <v>1361</v>
       </c>
       <c r="L186" s="1" t="s">
         <v>1</v>
@@ -14859,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>821</v>
+        <v>1362</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>1</v>
@@ -14918,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="K188" t="s">
-        <v>822</v>
+        <v>1363</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>1</v>
@@ -14977,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>823</v>
+        <v>1364</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>1</v>
@@ -15036,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>824</v>
+        <v>1365</v>
       </c>
       <c r="L190" s="1" t="s">
         <v>1</v>
@@ -15095,7 +16075,7 @@
         <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>825</v>
+        <v>1366</v>
       </c>
       <c r="L191" s="1" t="s">
         <v>1</v>
@@ -15154,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>826</v>
+        <v>1367</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>1</v>
@@ -15213,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="K193" t="s">
-        <v>827</v>
+        <v>1368</v>
       </c>
       <c r="L193" s="1" t="s">
         <v>1</v>
@@ -15272,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>828</v>
+        <v>1369</v>
       </c>
       <c r="L194" s="1" t="s">
         <v>1</v>
@@ -15331,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="K195" t="s">
-        <v>829</v>
+        <v>1370</v>
       </c>
       <c r="L195" s="1" t="s">
         <v>1</v>
@@ -15390,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="K196" t="s">
-        <v>830</v>
+        <v>1371</v>
       </c>
       <c r="L196" s="1" t="s">
         <v>1</v>
@@ -15449,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>831</v>
+        <v>1372</v>
       </c>
       <c r="L197" s="1" t="s">
         <v>1</v>
@@ -15508,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>832</v>
+        <v>1373</v>
       </c>
       <c r="L198" s="1" t="s">
         <v>1</v>
@@ -15567,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="K199" t="s">
-        <v>833</v>
+        <v>1374</v>
       </c>
       <c r="L199" s="1" t="s">
         <v>1</v>
@@ -15626,7 +16606,7 @@
         <v>1</v>
       </c>
       <c r="K200" t="s">
-        <v>834</v>
+        <v>1375</v>
       </c>
       <c r="L200" s="1" t="s">
         <v>1</v>
@@ -15685,7 +16665,7 @@
         <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>835</v>
+        <v>1376</v>
       </c>
       <c r="L201" s="1" t="s">
         <v>1</v>
@@ -15744,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>836</v>
+        <v>1377</v>
       </c>
       <c r="L202" s="1" t="s">
         <v>1</v>
@@ -15803,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="K203" t="s">
-        <v>837</v>
+        <v>1378</v>
       </c>
       <c r="L203" s="1" t="s">
         <v>1</v>
@@ -15862,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>838</v>
+        <v>1379</v>
       </c>
       <c r="L204" s="1" t="s">
         <v>1</v>
@@ -15921,7 +16901,7 @@
         <v>1</v>
       </c>
       <c r="K205" t="s">
-        <v>839</v>
+        <v>1380</v>
       </c>
       <c r="L205" s="1" t="s">
         <v>1</v>
@@ -15980,7 +16960,7 @@
         <v>1</v>
       </c>
       <c r="K206" t="s">
-        <v>840</v>
+        <v>1381</v>
       </c>
       <c r="L206" s="1" t="s">
         <v>1</v>
@@ -16039,7 +17019,7 @@
         <v>1</v>
       </c>
       <c r="K207" t="s">
-        <v>841</v>
+        <v>1382</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>1</v>
@@ -16098,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>842</v>
+        <v>1383</v>
       </c>
       <c r="L208" s="1" t="s">
         <v>1</v>
@@ -16157,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="K209" t="s">
-        <v>843</v>
+        <v>1384</v>
       </c>
       <c r="L209" s="1" t="s">
         <v>1</v>
@@ -16216,7 +17196,7 @@
         <v>1</v>
       </c>
       <c r="K210" t="s">
-        <v>844</v>
+        <v>1385</v>
       </c>
       <c r="L210" s="1" t="s">
         <v>1</v>
@@ -16275,7 +17255,7 @@
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>845</v>
+        <v>1386</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>1</v>
@@ -16334,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>846</v>
+        <v>1387</v>
       </c>
       <c r="L212" s="1" t="s">
         <v>1</v>
@@ -16393,7 +17373,7 @@
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>847</v>
+        <v>1388</v>
       </c>
       <c r="L213" s="1" t="s">
         <v>1</v>
@@ -16452,7 +17432,7 @@
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>848</v>
+        <v>1389</v>
       </c>
       <c r="L214" s="1" t="s">
         <v>1</v>
@@ -16511,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>849</v>
+        <v>1390</v>
       </c>
       <c r="L215" s="1" t="s">
         <v>1</v>
@@ -16570,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="K216" t="s">
-        <v>850</v>
+        <v>1391</v>
       </c>
       <c r="L216" s="1" t="s">
         <v>1</v>
@@ -16629,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>851</v>
+        <v>1392</v>
       </c>
       <c r="L217" s="1" t="s">
         <v>1</v>
@@ -16688,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>852</v>
+        <v>1393</v>
       </c>
       <c r="L218" s="1" t="s">
         <v>1</v>
@@ -16747,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>853</v>
+        <v>1394</v>
       </c>
       <c r="L219" s="1" t="s">
         <v>1</v>
@@ -16806,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="K220" t="s">
-        <v>854</v>
+        <v>1395</v>
       </c>
       <c r="L220" s="1" t="s">
         <v>1</v>
@@ -16865,7 +17845,7 @@
         <v>1</v>
       </c>
       <c r="K221" t="s">
-        <v>855</v>
+        <v>1396</v>
       </c>
       <c r="L221" s="1" t="s">
         <v>1</v>
@@ -16924,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="K222" t="s">
-        <v>856</v>
+        <v>1397</v>
       </c>
       <c r="L222" s="1" t="s">
         <v>1</v>
@@ -16983,7 +17963,7 @@
         <v>1</v>
       </c>
       <c r="K223" t="s">
-        <v>857</v>
+        <v>1398</v>
       </c>
       <c r="L223" s="1" t="s">
         <v>1</v>
@@ -17042,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="K224" t="s">
-        <v>858</v>
+        <v>1399</v>
       </c>
       <c r="L224" s="1" t="s">
         <v>1</v>
@@ -17101,7 +18081,7 @@
         <v>1</v>
       </c>
       <c r="K225" t="s">
-        <v>859</v>
+        <v>1400</v>
       </c>
       <c r="L225" s="1" t="s">
         <v>1</v>
@@ -17160,7 +18140,7 @@
         <v>1</v>
       </c>
       <c r="K226" t="s">
-        <v>860</v>
+        <v>1401</v>
       </c>
       <c r="L226" s="1" t="s">
         <v>1</v>
@@ -17219,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="K227" t="s">
-        <v>861</v>
+        <v>1402</v>
       </c>
       <c r="L227" s="1" t="s">
         <v>1</v>
@@ -17278,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="K228" t="s">
-        <v>862</v>
+        <v>1403</v>
       </c>
       <c r="L228" s="1" t="s">
         <v>1</v>
@@ -17337,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="K229" t="s">
-        <v>863</v>
+        <v>1404</v>
       </c>
       <c r="L229" s="1" t="s">
         <v>1</v>
@@ -17396,7 +18376,7 @@
         <v>1</v>
       </c>
       <c r="K230" t="s">
-        <v>864</v>
+        <v>1405</v>
       </c>
       <c r="L230" s="1" t="s">
         <v>1</v>
@@ -17455,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="K231" t="s">
-        <v>865</v>
+        <v>1406</v>
       </c>
       <c r="L231" s="1" t="s">
         <v>1</v>
@@ -17514,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="K232" t="s">
-        <v>866</v>
+        <v>1407</v>
       </c>
       <c r="L232" s="1" t="s">
         <v>1</v>
@@ -17573,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="K233" t="s">
-        <v>867</v>
+        <v>1408</v>
       </c>
       <c r="L233" s="1" t="s">
         <v>1</v>
@@ -17632,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>868</v>
+        <v>1409</v>
       </c>
       <c r="L234" s="1" t="s">
         <v>1</v>
@@ -17691,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="K235" t="s">
-        <v>869</v>
+        <v>1410</v>
       </c>
       <c r="L235" s="1" t="s">
         <v>1</v>
@@ -17750,7 +18730,7 @@
         <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>870</v>
+        <v>1411</v>
       </c>
       <c r="L236" s="1" t="s">
         <v>1</v>
@@ -17809,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>871</v>
+        <v>1412</v>
       </c>
       <c r="L237" s="1" t="s">
         <v>1</v>
@@ -17868,7 +18848,7 @@
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>872</v>
+        <v>1413</v>
       </c>
       <c r="L238" s="1" t="s">
         <v>1</v>
@@ -17927,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="K239" t="s">
-        <v>873</v>
+        <v>1414</v>
       </c>
       <c r="L239" s="1" t="s">
         <v>1</v>
@@ -17986,7 +18966,7 @@
         <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>874</v>
+        <v>1415</v>
       </c>
       <c r="L240" s="1" t="s">
         <v>1</v>
@@ -18045,7 +19025,7 @@
         <v>1</v>
       </c>
       <c r="K241" t="s">
-        <v>875</v>
+        <v>1416</v>
       </c>
       <c r="L241" s="1" t="s">
         <v>1</v>
@@ -18104,7 +19084,7 @@
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>876</v>
+        <v>1417</v>
       </c>
       <c r="L242" s="1" t="s">
         <v>1</v>
@@ -18163,7 +19143,7 @@
         <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>877</v>
+        <v>1418</v>
       </c>
       <c r="L243" s="1" t="s">
         <v>1</v>
@@ -18222,7 +19202,7 @@
         <v>1</v>
       </c>
       <c r="K244" t="s">
-        <v>878</v>
+        <v>1419</v>
       </c>
       <c r="L244" s="1" t="s">
         <v>1</v>
@@ -18281,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="K245" t="s">
-        <v>879</v>
+        <v>1420</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>1</v>
@@ -18340,7 +19320,7 @@
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>880</v>
+        <v>1421</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>1</v>
@@ -18399,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="K247" t="s">
-        <v>881</v>
+        <v>1422</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>1</v>
@@ -18458,7 +19438,7 @@
         <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>882</v>
+        <v>1423</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>1</v>
@@ -18517,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>883</v>
+        <v>1424</v>
       </c>
       <c r="L249" s="1" t="s">
         <v>1</v>
@@ -18576,7 +19556,7 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>884</v>
+        <v>1425</v>
       </c>
       <c r="L250" s="1" t="s">
         <v>1</v>
@@ -18635,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>885</v>
+        <v>1426</v>
       </c>
       <c r="L251" s="1" t="s">
         <v>1</v>
@@ -18694,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="K252" t="s">
-        <v>886</v>
+        <v>1427</v>
       </c>
       <c r="L252" s="1" t="s">
         <v>1</v>
@@ -18753,7 +19733,7 @@
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>887</v>
+        <v>1428</v>
       </c>
       <c r="L253" s="1" t="s">
         <v>1</v>
@@ -18812,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>888</v>
+        <v>1429</v>
       </c>
       <c r="L254" s="1" t="s">
         <v>1</v>
@@ -18871,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="K255" t="s">
-        <v>889</v>
+        <v>1430</v>
       </c>
       <c r="L255" s="1" t="s">
         <v>1</v>
@@ -18930,7 +19910,7 @@
         <v>1</v>
       </c>
       <c r="K256" t="s">
-        <v>890</v>
+        <v>1431</v>
       </c>
       <c r="L256" s="1" t="s">
         <v>1</v>
@@ -18989,7 +19969,7 @@
         <v>1</v>
       </c>
       <c r="K257" t="s">
-        <v>891</v>
+        <v>1432</v>
       </c>
       <c r="L257" s="1" t="s">
         <v>1</v>
@@ -19048,7 +20028,7 @@
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>892</v>
+        <v>1433</v>
       </c>
       <c r="L258" s="1" t="s">
         <v>1</v>
@@ -19107,7 +20087,7 @@
         <v>1</v>
       </c>
       <c r="K259" t="s">
-        <v>893</v>
+        <v>1434</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>1</v>
@@ -19166,7 +20146,7 @@
         <v>1</v>
       </c>
       <c r="K260" t="s">
-        <v>894</v>
+        <v>1435</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>1</v>
@@ -19225,7 +20205,7 @@
         <v>1</v>
       </c>
       <c r="K261" t="s">
-        <v>895</v>
+        <v>1436</v>
       </c>
       <c r="L261" s="1" t="s">
         <v>1</v>
@@ -19284,7 +20264,7 @@
         <v>1</v>
       </c>
       <c r="K262" t="s">
-        <v>896</v>
+        <v>1437</v>
       </c>
       <c r="L262" s="1" t="s">
         <v>1</v>
@@ -19343,7 +20323,7 @@
         <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>897</v>
+        <v>1438</v>
       </c>
       <c r="L263" s="1" t="s">
         <v>1</v>
@@ -19402,7 +20382,7 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>898</v>
+        <v>1439</v>
       </c>
       <c r="L264" s="1" t="s">
         <v>1</v>
@@ -19461,7 +20441,7 @@
         <v>1</v>
       </c>
       <c r="K265" t="s">
-        <v>899</v>
+        <v>1440</v>
       </c>
       <c r="L265" s="1" t="s">
         <v>1</v>
@@ -19520,7 +20500,7 @@
         <v>1</v>
       </c>
       <c r="K266" t="s">
-        <v>900</v>
+        <v>1441</v>
       </c>
       <c r="L266" s="1" t="s">
         <v>1</v>
@@ -19579,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="K267" t="s">
-        <v>901</v>
+        <v>1442</v>
       </c>
       <c r="L267" s="1" t="s">
         <v>1</v>
@@ -19638,7 +20618,7 @@
         <v>1</v>
       </c>
       <c r="K268" t="s">
-        <v>902</v>
+        <v>1443</v>
       </c>
       <c r="L268" s="1" t="s">
         <v>1</v>
@@ -19697,7 +20677,7 @@
         <v>1</v>
       </c>
       <c r="K269" t="s">
-        <v>903</v>
+        <v>1444</v>
       </c>
       <c r="L269" s="1" t="s">
         <v>1</v>
@@ -19756,7 +20736,7 @@
         <v>1</v>
       </c>
       <c r="K270" t="s">
-        <v>904</v>
+        <v>1445</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>1</v>
@@ -19815,7 +20795,7 @@
         <v>1</v>
       </c>
       <c r="K271" t="s">
-        <v>905</v>
+        <v>1446</v>
       </c>
       <c r="L271" s="1" t="s">
         <v>1</v>
@@ -19874,7 +20854,7 @@
         <v>1</v>
       </c>
       <c r="K272" t="s">
-        <v>906</v>
+        <v>1447</v>
       </c>
       <c r="L272" s="1" t="s">
         <v>1</v>
@@ -19933,7 +20913,7 @@
         <v>1</v>
       </c>
       <c r="K273" t="s">
-        <v>907</v>
+        <v>1448</v>
       </c>
       <c r="L273" s="1" t="s">
         <v>1</v>
@@ -19992,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="K274" t="s">
-        <v>908</v>
+        <v>1449</v>
       </c>
       <c r="L274" s="1" t="s">
         <v>1</v>
@@ -20051,7 +21031,7 @@
         <v>1</v>
       </c>
       <c r="K275" t="s">
-        <v>909</v>
+        <v>1450</v>
       </c>
       <c r="L275" s="1" t="s">
         <v>1</v>
@@ -20110,7 +21090,7 @@
         <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>910</v>
+        <v>1451</v>
       </c>
       <c r="L276" s="1" t="s">
         <v>1</v>
@@ -20169,7 +21149,7 @@
         <v>1</v>
       </c>
       <c r="K277" t="s">
-        <v>911</v>
+        <v>1452</v>
       </c>
       <c r="L277" s="1" t="s">
         <v>1</v>
@@ -20228,7 +21208,7 @@
         <v>1</v>
       </c>
       <c r="K278" t="s">
-        <v>912</v>
+        <v>1453</v>
       </c>
       <c r="L278" s="1" t="s">
         <v>1</v>
@@ -20287,7 +21267,7 @@
         <v>1</v>
       </c>
       <c r="K279" t="s">
-        <v>913</v>
+        <v>1454</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>1</v>
@@ -20346,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="K280" t="s">
-        <v>914</v>
+        <v>1455</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>1</v>
@@ -20405,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="K281" t="s">
-        <v>915</v>
+        <v>1456</v>
       </c>
       <c r="L281" s="1" t="s">
         <v>1</v>
@@ -20464,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="K282" t="s">
-        <v>916</v>
+        <v>1457</v>
       </c>
       <c r="L282" s="1" t="s">
         <v>1</v>
@@ -20523,7 +21503,7 @@
         <v>1</v>
       </c>
       <c r="K283" t="s">
-        <v>917</v>
+        <v>1458</v>
       </c>
       <c r="L283" s="1" t="s">
         <v>1</v>
@@ -20582,7 +21562,7 @@
         <v>1</v>
       </c>
       <c r="K284" t="s">
-        <v>918</v>
+        <v>1459</v>
       </c>
       <c r="L284" s="1" t="s">
         <v>1</v>
@@ -20641,7 +21621,7 @@
         <v>1</v>
       </c>
       <c r="K285" t="s">
-        <v>919</v>
+        <v>1460</v>
       </c>
       <c r="L285" s="1" t="s">
         <v>1</v>
@@ -20700,7 +21680,7 @@
         <v>1</v>
       </c>
       <c r="K286" t="s">
-        <v>920</v>
+        <v>1461</v>
       </c>
       <c r="L286" s="1" t="s">
         <v>1</v>
@@ -20759,7 +21739,7 @@
         <v>1</v>
       </c>
       <c r="K287" t="s">
-        <v>921</v>
+        <v>1462</v>
       </c>
       <c r="L287" s="1" t="s">
         <v>1</v>
@@ -20818,7 +21798,7 @@
         <v>1</v>
       </c>
       <c r="K288" t="s">
-        <v>922</v>
+        <v>1463</v>
       </c>
       <c r="L288" s="1" t="s">
         <v>1</v>
@@ -20877,7 +21857,7 @@
         <v>1</v>
       </c>
       <c r="K289" t="s">
-        <v>923</v>
+        <v>1464</v>
       </c>
       <c r="L289" s="1" t="s">
         <v>1</v>
@@ -20936,7 +21916,7 @@
         <v>1</v>
       </c>
       <c r="K290" t="s">
-        <v>924</v>
+        <v>1465</v>
       </c>
       <c r="L290" s="1" t="s">
         <v>1</v>
@@ -20995,7 +21975,7 @@
         <v>1</v>
       </c>
       <c r="K291" t="s">
-        <v>925</v>
+        <v>1466</v>
       </c>
       <c r="L291" s="1" t="s">
         <v>1</v>
@@ -21054,7 +22034,7 @@
         <v>1</v>
       </c>
       <c r="K292" t="s">
-        <v>926</v>
+        <v>1467</v>
       </c>
       <c r="L292" s="1" t="s">
         <v>1</v>
@@ -21113,7 +22093,7 @@
         <v>1</v>
       </c>
       <c r="K293" t="s">
-        <v>927</v>
+        <v>1468</v>
       </c>
       <c r="L293" s="1" t="s">
         <v>1</v>
@@ -21172,7 +22152,7 @@
         <v>1</v>
       </c>
       <c r="K294" t="s">
-        <v>928</v>
+        <v>1469</v>
       </c>
       <c r="L294" s="1" t="s">
         <v>1</v>
@@ -21231,7 +22211,7 @@
         <v>1</v>
       </c>
       <c r="K295" t="s">
-        <v>929</v>
+        <v>1470</v>
       </c>
       <c r="L295" s="1" t="s">
         <v>1</v>
@@ -21290,7 +22270,7 @@
         <v>1</v>
       </c>
       <c r="K296" t="s">
-        <v>930</v>
+        <v>1471</v>
       </c>
       <c r="L296" s="1" t="s">
         <v>1</v>
@@ -21349,7 +22329,7 @@
         <v>1</v>
       </c>
       <c r="K297" t="s">
-        <v>931</v>
+        <v>1472</v>
       </c>
       <c r="L297" s="1" t="s">
         <v>1</v>
@@ -21408,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="K298" t="s">
-        <v>932</v>
+        <v>1473</v>
       </c>
       <c r="L298" s="1" t="s">
         <v>1</v>
@@ -21467,7 +22447,7 @@
         <v>1</v>
       </c>
       <c r="K299" t="s">
-        <v>933</v>
+        <v>1474</v>
       </c>
       <c r="L299" s="1" t="s">
         <v>1</v>
@@ -21526,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="K300" t="s">
-        <v>934</v>
+        <v>1475</v>
       </c>
       <c r="L300" s="1" t="s">
         <v>1</v>
@@ -21585,7 +22565,7 @@
         <v>1</v>
       </c>
       <c r="K301" t="s">
-        <v>935</v>
+        <v>1476</v>
       </c>
       <c r="L301" s="1" t="s">
         <v>1</v>
@@ -21644,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="K302" t="s">
-        <v>936</v>
+        <v>1477</v>
       </c>
       <c r="L302" s="1" t="s">
         <v>1</v>
@@ -21703,7 +22683,7 @@
         <v>1</v>
       </c>
       <c r="K303" t="s">
-        <v>937</v>
+        <v>1478</v>
       </c>
       <c r="L303" s="1" t="s">
         <v>1</v>
@@ -21762,7 +22742,7 @@
         <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>938</v>
+        <v>1479</v>
       </c>
       <c r="L304" s="1" t="s">
         <v>1</v>
@@ -21821,7 +22801,7 @@
         <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>939</v>
+        <v>1480</v>
       </c>
       <c r="L305" s="1" t="s">
         <v>1</v>
@@ -21880,7 +22860,7 @@
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>940</v>
+        <v>1481</v>
       </c>
       <c r="L306" s="1" t="s">
         <v>1</v>
@@ -21939,7 +22919,7 @@
         <v>1</v>
       </c>
       <c r="K307" t="s">
-        <v>941</v>
+        <v>1482</v>
       </c>
       <c r="L307" s="1" t="s">
         <v>1</v>
@@ -21998,7 +22978,7 @@
         <v>1</v>
       </c>
       <c r="K308" t="s">
-        <v>942</v>
+        <v>1483</v>
       </c>
       <c r="L308" s="1" t="s">
         <v>1</v>
@@ -22057,7 +23037,7 @@
         <v>1</v>
       </c>
       <c r="K309" t="s">
-        <v>943</v>
+        <v>1484</v>
       </c>
       <c r="L309" s="1" t="s">
         <v>1</v>
@@ -22116,7 +23096,7 @@
         <v>1</v>
       </c>
       <c r="K310" t="s">
-        <v>944</v>
+        <v>1485</v>
       </c>
       <c r="L310" s="1" t="s">
         <v>1</v>
@@ -22175,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="K311" t="s">
-        <v>945</v>
+        <v>1486</v>
       </c>
       <c r="L311" s="1" t="s">
         <v>1</v>
@@ -22234,7 +23214,7 @@
         <v>1</v>
       </c>
       <c r="K312" t="s">
-        <v>946</v>
+        <v>1487</v>
       </c>
       <c r="L312" s="1" t="s">
         <v>1</v>
@@ -22293,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="K313" t="s">
-        <v>947</v>
+        <v>1488</v>
       </c>
       <c r="L313" s="1" t="s">
         <v>1</v>
@@ -22352,7 +23332,7 @@
         <v>1</v>
       </c>
       <c r="K314" t="s">
-        <v>948</v>
+        <v>1489</v>
       </c>
       <c r="L314" s="1" t="s">
         <v>1</v>
@@ -22411,7 +23391,7 @@
         <v>1</v>
       </c>
       <c r="K315" t="s">
-        <v>949</v>
+        <v>1490</v>
       </c>
       <c r="L315" s="1" t="s">
         <v>1</v>
@@ -22470,7 +23450,7 @@
         <v>1</v>
       </c>
       <c r="K316" t="s">
-        <v>950</v>
+        <v>1491</v>
       </c>
       <c r="L316" s="1" t="s">
         <v>1</v>
@@ -22529,7 +23509,7 @@
         <v>1</v>
       </c>
       <c r="K317" t="s">
-        <v>951</v>
+        <v>1492</v>
       </c>
       <c r="L317" s="1" t="s">
         <v>1</v>
@@ -22588,7 +23568,7 @@
         <v>1</v>
       </c>
       <c r="K318" t="s">
-        <v>952</v>
+        <v>1493</v>
       </c>
       <c r="L318" s="1" t="s">
         <v>1</v>
@@ -22647,7 +23627,7 @@
         <v>1</v>
       </c>
       <c r="K319" t="s">
-        <v>953</v>
+        <v>1494</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>1</v>
@@ -22706,7 +23686,7 @@
         <v>1</v>
       </c>
       <c r="K320" t="s">
-        <v>954</v>
+        <v>1495</v>
       </c>
       <c r="L320" s="1" t="s">
         <v>1</v>
@@ -22765,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="K321" t="s">
-        <v>955</v>
+        <v>1496</v>
       </c>
       <c r="L321" s="1" t="s">
         <v>1</v>
@@ -22824,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="K322" t="s">
-        <v>956</v>
+        <v>1497</v>
       </c>
       <c r="L322" s="1" t="s">
         <v>1</v>
@@ -22883,7 +23863,7 @@
         <v>1</v>
       </c>
       <c r="K323" t="s">
-        <v>957</v>
+        <v>1498</v>
       </c>
       <c r="L323" s="1" t="s">
         <v>1</v>
@@ -22942,7 +23922,7 @@
         <v>1</v>
       </c>
       <c r="K324" t="s">
-        <v>958</v>
+        <v>1499</v>
       </c>
       <c r="L324" s="1" t="s">
         <v>1</v>
@@ -23001,7 +23981,7 @@
         <v>1</v>
       </c>
       <c r="K325" t="s">
-        <v>959</v>
+        <v>1500</v>
       </c>
       <c r="L325" s="1" t="s">
         <v>1</v>
@@ -23060,7 +24040,7 @@
         <v>1</v>
       </c>
       <c r="K326" t="s">
-        <v>960</v>
+        <v>1501</v>
       </c>
       <c r="L326" s="1" t="s">
         <v>1</v>
@@ -23119,7 +24099,7 @@
         <v>1</v>
       </c>
       <c r="K327" t="s">
-        <v>961</v>
+        <v>1502</v>
       </c>
       <c r="L327" s="1" t="s">
         <v>1</v>
@@ -23178,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="K328" t="s">
-        <v>962</v>
+        <v>1503</v>
       </c>
       <c r="L328" s="1" t="s">
         <v>1</v>
@@ -23237,7 +24217,7 @@
         <v>1</v>
       </c>
       <c r="K329" t="s">
-        <v>963</v>
+        <v>1504</v>
       </c>
       <c r="L329" s="1" t="s">
         <v>1</v>
@@ -23296,7 +24276,7 @@
         <v>1</v>
       </c>
       <c r="K330" t="s">
-        <v>964</v>
+        <v>1505</v>
       </c>
       <c r="L330" s="1" t="s">
         <v>1</v>
